--- a/biology/Biochimie/2-Oléylglycérol/2-Oléylglycérol.xlsx
+++ b/biology/Biochimie/2-Oléylglycérol/2-Oléylglycérol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2-Ol%C3%A9ylglyc%C3%A9rol</t>
+          <t>2-Oléylglycérol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 2-oléylglycérol (2-OG) est un monoglycéride constitué d'un résidu d'acide oléique combiné à un résidu de glycérol par une liaison ester en position 2. Il est présent dans les cellules des êtres vivants, où il est produit à partir de diglycérides. La monoacylglycérol lipase (MAGL) peut le cliver en acide oléique et glycérol[2].
-On a montré en 2011 que le 2-oléylglycérol est un ligand endogène du GPR119[3]. Par ailleurs, le 2-OG provoque l'augmentation du niveau d'incrétines (GLP-1 et GIP) lorsqu'on l'administre dans l'intestin grêle[3].
+Le 2-oléylglycérol (2-OG) est un monoglycéride constitué d'un résidu d'acide oléique combiné à un résidu de glycérol par une liaison ester en position 2. Il est présent dans les cellules des êtres vivants, où il est produit à partir de diglycérides. La monoacylglycérol lipase (MAGL) peut le cliver en acide oléique et glycérol.
+On a montré en 2011 que le 2-oléylglycérol est un ligand endogène du GPR119. Par ailleurs, le 2-OG provoque l'augmentation du niveau d'incrétines (GLP-1 et GIP) lorsqu'on l'administre dans l'intestin grêle.
 </t>
         </is>
       </c>
